--- a/data_config/EntityAttrStar.xlsx
+++ b/data_config/EntityAttrStar.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="13740" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -157,16 +170,19 @@
   </si>
   <si>
     <t>159</t>
+  </si>
+  <si>
+    <t>测试模板</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -179,18 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,31 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,32 +226,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,7 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,25 +275,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +324,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -332,13 +348,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,55 +396,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,97 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,11 +542,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,30 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,183 +639,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,52 +820,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1151,8 +1167,8 @@
   <sheetPr/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2039,17 +2055,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="12:12">
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="12:12">
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="12:12">
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="12:12">
-      <c r="L33" s="8"/>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>12100001</v>
+      </c>
+      <c r="C28">
+        <v>101</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>200</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>12100002</v>
+      </c>
+      <c r="C29">
+        <v>101</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>400</v>
+      </c>
+      <c r="K29" s="1">
+        <v>200</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>12100003</v>
+      </c>
+      <c r="C30">
+        <v>101</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>800</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>600</v>
+      </c>
+      <c r="K30" s="1">
+        <v>300</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>12100004</v>
+      </c>
+      <c r="C31">
+        <v>101</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31">
+        <v>400</v>
+      </c>
+      <c r="G31">
+        <v>400</v>
+      </c>
+      <c r="H31">
+        <v>1600</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>800</v>
+      </c>
+      <c r="K31" s="1">
+        <v>400</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>12100005</v>
+      </c>
+      <c r="C32">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>800</v>
+      </c>
+      <c r="G32">
+        <v>800</v>
+      </c>
+      <c r="H32">
+        <v>3200</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>500</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="12:12">
       <c r="L34" s="8"/>

--- a/data_config/EntityAttrStar.xlsx
+++ b/data_config/EntityAttrStar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13740" windowHeight="10395"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -67,6 +67,21 @@
     <t>attackRange</t>
   </si>
   <si>
+    <t>inputDamageRate</t>
+  </si>
+  <si>
+    <t>outputDamageRate</t>
+  </si>
+  <si>
+    <t>critRate</t>
+  </si>
+  <si>
+    <t>critDamage</t>
+  </si>
+  <si>
+    <t>skillCD</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -107,6 +122,21 @@
   </si>
   <si>
     <t>攻击距离(*1000)</t>
+  </si>
+  <si>
+    <t>承受伤害千分比</t>
+  </si>
+  <si>
+    <t>输出伤害千分比</t>
+  </si>
+  <si>
+    <t>暴击几率（千分比）</t>
+  </si>
+  <si>
+    <t>暴击伤害（千分比）</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
   </si>
   <si>
     <t>上官翎</t>
@@ -1165,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1179,9 +1209,10 @@
     <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,81 +1249,126 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:17">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1309,25 +1385,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1347,10 +1423,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -1385,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
@@ -1423,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -1461,10 +1537,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -1499,10 +1575,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
@@ -1537,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4">
         <v>7</v>
@@ -1575,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4">
         <v>8</v>
@@ -1613,10 +1689,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4">
         <v>9</v>
@@ -1651,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4">
         <v>10</v>
@@ -1689,25 +1765,25 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1727,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4">
         <v>11</v>
@@ -1765,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G17" s="4">
         <v>12</v>
@@ -1803,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18" s="4">
         <v>13</v>
@@ -1841,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G19" s="4">
         <v>14</v>
@@ -1879,10 +1955,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G20" s="4">
         <v>15</v>
@@ -1917,10 +1993,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G21" s="4">
         <v>16</v>
@@ -1955,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G22" s="4">
         <v>17</v>
@@ -1993,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G23" s="4">
         <v>18</v>
@@ -2031,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G24" s="4">
         <v>19</v>
@@ -2069,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -2107,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -2145,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <v>200</v>
@@ -2183,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>400</v>
@@ -2221,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F32">
         <v>800</v>

--- a/data_config/EntityAttrStar.xlsx
+++ b/data_config/EntityAttrStar.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowWidth="24900" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -55,33 +42,33 @@
     <t>health</t>
   </si>
   <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>inputDamageRate</t>
+  </si>
+  <si>
+    <t>outputDamageRate</t>
+  </si>
+  <si>
+    <t>critRate</t>
+  </si>
+  <si>
+    <t>critDamage</t>
+  </si>
+  <si>
+    <t>skillCD</t>
+  </si>
+  <si>
     <t>magic</t>
   </si>
   <si>
-    <t>attackSpeed</t>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-  </si>
-  <si>
-    <t>attackRange</t>
-  </si>
-  <si>
-    <t>inputDamageRate</t>
-  </si>
-  <si>
-    <t>outputDamageRate</t>
-  </si>
-  <si>
-    <t>critRate</t>
-  </si>
-  <si>
-    <t>critDamage</t>
-  </si>
-  <si>
-    <t>skillCD</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -112,33 +99,33 @@
     <t>生命值</t>
   </si>
   <si>
+    <t>攻击速度(*1000) 1 秒中攻击次数</t>
+  </si>
+  <si>
+    <t>移动速度(*1000)</t>
+  </si>
+  <si>
+    <t>攻击距离(*1000)</t>
+  </si>
+  <si>
+    <t>承受伤害千分比</t>
+  </si>
+  <si>
+    <t>输出伤害千分比</t>
+  </si>
+  <si>
+    <t>暴击几率（千分比）</t>
+  </si>
+  <si>
+    <t>暴击伤害（千分比）</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
+  </si>
+  <si>
     <t>魔法值</t>
   </si>
   <si>
-    <t>攻击速度(*1000) 1 秒中攻击次数</t>
-  </si>
-  <si>
-    <t>移动速度(*1000)</t>
-  </si>
-  <si>
-    <t>攻击距离(*1000)</t>
-  </si>
-  <si>
-    <t>承受伤害千分比</t>
-  </si>
-  <si>
-    <t>输出伤害千分比</t>
-  </si>
-  <si>
-    <t>暴击几率（千分比）</t>
-  </si>
-  <si>
-    <t>暴击伤害（千分比）</t>
-  </si>
-  <si>
-    <t>技能冷却</t>
-  </si>
-  <si>
     <t>上官翎</t>
   </si>
   <si>
@@ -203,12 +190,78 @@
   </si>
   <si>
     <t>测试模板</t>
+  </si>
+  <si>
+    <t>怪物1星级模板</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -369,12 +422,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -695,7 +754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,16 +778,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -737,95 +796,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +907,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,32 +1265,37 @@
   <sheetPr/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5660" ySplit="3480" topLeftCell="A1" activePane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="19.2211538461538" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="14" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="13" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="17" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1237,13 +1310,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1261,7 +1334,7 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1314,7 +1387,7 @@
       <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1322,13 +1395,13 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1343,13 +1416,13 @@
       <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
@@ -1367,11 +1440,11 @@
       <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1381,35 +1454,35 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1419,35 +1492,35 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>50</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="8">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <v>20</v>
       </c>
-      <c r="J5" s="7">
-        <v>50</v>
-      </c>
-      <c r="K5" s="7">
-        <v>500</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1457,35 +1530,35 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>51</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="8">
+        <v>51</v>
+      </c>
+      <c r="J6" s="8">
+        <v>501</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
         <v>21</v>
       </c>
-      <c r="J6" s="7">
-        <v>51</v>
-      </c>
-      <c r="K6" s="7">
-        <v>501</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:12">
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1495,35 +1568,35 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>52</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="8">
+        <v>52</v>
+      </c>
+      <c r="J7" s="8">
+        <v>502</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
         <v>22</v>
       </c>
-      <c r="J7" s="7">
-        <v>52</v>
-      </c>
-      <c r="K7" s="7">
-        <v>502</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1533,35 +1606,35 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>53</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="8">
+        <v>53</v>
+      </c>
+      <c r="J8" s="8">
+        <v>503</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>23</v>
       </c>
-      <c r="J8" s="7">
-        <v>53</v>
-      </c>
-      <c r="K8" s="7">
-        <v>503</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1571,35 +1644,35 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>54</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="8">
+        <v>54</v>
+      </c>
+      <c r="J9" s="8">
+        <v>504</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
         <v>24</v>
       </c>
-      <c r="J9" s="7">
-        <v>54</v>
-      </c>
-      <c r="K9" s="7">
-        <v>504</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1609,35 +1682,35 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>7</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>55</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="8">
+        <v>55</v>
+      </c>
+      <c r="J10" s="8">
+        <v>505</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
         <v>25</v>
       </c>
-      <c r="J10" s="7">
-        <v>55</v>
-      </c>
-      <c r="K10" s="7">
-        <v>505</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1647,35 +1720,35 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>56</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="8">
+        <v>56</v>
+      </c>
+      <c r="J11" s="8">
+        <v>506</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
         <v>26</v>
       </c>
-      <c r="J11" s="7">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7">
-        <v>506</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1685,35 +1758,35 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>9</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>57</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="8">
+        <v>57</v>
+      </c>
+      <c r="J12" s="8">
+        <v>507</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
         <v>27</v>
       </c>
-      <c r="J12" s="7">
-        <v>57</v>
-      </c>
-      <c r="K12" s="7">
-        <v>507</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1723,35 +1796,35 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>58</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="8">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8">
+        <v>508</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
         <v>28</v>
       </c>
-      <c r="J13" s="7">
-        <v>58</v>
-      </c>
-      <c r="K13" s="7">
-        <v>508</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1761,35 +1834,35 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="F15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1799,35 +1872,35 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>11</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>366</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="8">
+        <v>50</v>
+      </c>
+      <c r="J16" s="8">
+        <v>500</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
         <v>226</v>
       </c>
-      <c r="J16" s="7">
-        <v>50</v>
-      </c>
-      <c r="K16" s="7">
-        <v>500</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1837,35 +1910,35 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>12</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>367</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="8">
+        <v>51</v>
+      </c>
+      <c r="J17" s="8">
+        <v>501</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
         <v>227</v>
       </c>
-      <c r="J17" s="7">
-        <v>51</v>
-      </c>
-      <c r="K17" s="7">
-        <v>501</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:12">
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:17">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1875,35 +1948,35 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>13</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>368</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="8">
+        <v>52</v>
+      </c>
+      <c r="J18" s="8">
+        <v>502</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
         <v>228</v>
       </c>
-      <c r="J18" s="7">
-        <v>52</v>
-      </c>
-      <c r="K18" s="7">
-        <v>502</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1913,35 +1986,35 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>14</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>369</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="8">
+        <v>53</v>
+      </c>
+      <c r="J19" s="8">
+        <v>503</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
         <v>229</v>
       </c>
-      <c r="J19" s="7">
-        <v>53</v>
-      </c>
-      <c r="K19" s="7">
-        <v>503</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1951,35 +2024,35 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>15</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>370</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="8">
+        <v>54</v>
+      </c>
+      <c r="J20" s="8">
+        <v>504</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
         <v>230</v>
       </c>
-      <c r="J20" s="7">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7">
-        <v>504</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1989,35 +2062,35 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>7</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>16</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>371</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="8">
+        <v>55</v>
+      </c>
+      <c r="J21" s="8">
+        <v>505</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
         <v>231</v>
       </c>
-      <c r="J21" s="7">
-        <v>55</v>
-      </c>
-      <c r="K21" s="7">
-        <v>505</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2027,35 +2100,35 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>8</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>17</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>372</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="8">
+        <v>56</v>
+      </c>
+      <c r="J22" s="8">
+        <v>506</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
         <v>232</v>
       </c>
-      <c r="J22" s="7">
-        <v>56</v>
-      </c>
-      <c r="K22" s="7">
-        <v>506</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2065,35 +2138,35 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>9</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>18</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>373</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="8">
+        <v>57</v>
+      </c>
+      <c r="J23" s="8">
+        <v>507</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
         <v>233</v>
       </c>
-      <c r="J23" s="7">
-        <v>57</v>
-      </c>
-      <c r="K23" s="7">
-        <v>507</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2103,35 +2176,35 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>19</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>374</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="8">
+        <v>58</v>
+      </c>
+      <c r="J24" s="8">
+        <v>508</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
         <v>234</v>
       </c>
-      <c r="J24" s="7">
-        <v>58</v>
-      </c>
-      <c r="K24" s="7">
-        <v>508</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2156,20 +2229,20 @@
       <c r="H28">
         <v>200</v>
       </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="I28" s="1">
+        <v>200</v>
       </c>
       <c r="J28" s="1">
-        <v>200</v>
-      </c>
-      <c r="K28" s="1">
         <v>100</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2194,20 +2267,20 @@
       <c r="H29">
         <v>400</v>
       </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="I29" s="1">
+        <v>400</v>
       </c>
       <c r="J29" s="1">
-        <v>400</v>
-      </c>
-      <c r="K29" s="1">
         <v>200</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2232,20 +2305,20 @@
       <c r="H30">
         <v>800</v>
       </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="I30" s="1">
+        <v>600</v>
       </c>
       <c r="J30" s="1">
-        <v>600</v>
-      </c>
-      <c r="K30" s="1">
         <v>300</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2270,20 +2343,20 @@
       <c r="H31">
         <v>1600</v>
       </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="I31" s="1">
+        <v>800</v>
       </c>
       <c r="J31" s="1">
-        <v>800</v>
-      </c>
-      <c r="K31" s="1">
         <v>400</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2308,81 +2381,581 @@
       <c r="H32">
         <v>3200</v>
       </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="I32" s="1">
+        <v>1000</v>
       </c>
       <c r="J32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K32" s="1">
         <v>500</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12">
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="12:12">
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="12:12">
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="12:12">
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="12:12">
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="12:12">
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="12:12">
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="12:12">
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="12:12">
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="12:12">
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="12:12">
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="12:12">
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="12:12">
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="12:12">
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="12:12">
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="12:12">
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="12:12">
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="12:12">
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="12:12">
-      <c r="L54" s="8"/>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>21001001</v>
+      </c>
+      <c r="C35">
+        <v>1001</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>21001002</v>
+      </c>
+      <c r="C36">
+        <v>1001</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>21001003</v>
+      </c>
+      <c r="C37">
+        <v>1001</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>21001004</v>
+      </c>
+      <c r="C38">
+        <v>1001</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>21001005</v>
+      </c>
+      <c r="C39">
+        <v>1001</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>21002001</v>
+      </c>
+      <c r="C41">
+        <v>1002</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>21002002</v>
+      </c>
+      <c r="C42">
+        <v>1002</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>21002003</v>
+      </c>
+      <c r="C43">
+        <v>1002</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>21002004</v>
+      </c>
+      <c r="C44">
+        <v>1002</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>21002005</v>
+      </c>
+      <c r="C45">
+        <v>1002</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,7 +2973,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2417,7 +2990,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityAttrStar.xlsx
+++ b/data_config/EntityAttrStar.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24900" windowHeight="15780"/>
+    <workbookView windowWidth="14400" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -66,6 +79,12 @@
     <t>skillCD</t>
   </si>
   <si>
+    <t>treatmentRate</t>
+  </si>
+  <si>
+    <t>healthRecoverSpeed</t>
+  </si>
+  <si>
     <t>magic</t>
   </si>
   <si>
@@ -123,145 +142,166 @@
     <t>技能冷却</t>
   </si>
   <si>
+    <t>治疗比率</t>
+  </si>
+  <si>
+    <t>生命恢复速度（*1000）每秒</t>
+  </si>
+  <si>
     <t>魔法值</t>
   </si>
   <si>
-    <t>上官翎</t>
+    <t>隐墨</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>凤紫夕</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>唐依</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>林清远</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>怪物1星级模板</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>凤紫夕</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>测试模板</t>
-  </si>
-  <si>
-    <t>怪物1星级模板</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>1400</t>
   </si>
   <si>
     <t>450</t>
   </si>
   <si>
+    <t>370</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>1500</t>
+    <t>2800</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1263,29 +1303,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5660" ySplit="3480" topLeftCell="A1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="5310" ySplit="2715" topLeftCell="F3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="19.2211538461538" customWidth="1"/>
+    <col min="5" max="5" width="19.225" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
     <col min="12" max="13" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2"/>
+    <col min="19" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1334,122 +1374,140 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:17">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:19">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>12001001</v>
+        <v>1200101</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1458,36 +1516,36 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>12001002</v>
+        <v>1200102</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1496,36 +1554,39 @@
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" s="5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I5" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J5" s="8">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5">
+        <v>2000</v>
+      </c>
+      <c r="S5" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>12001003</v>
+        <v>1200103</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1534,36 +1595,39 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5">
-        <v>51</v>
+        <v>650</v>
       </c>
       <c r="I6" s="8">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="J6" s="8">
-        <v>501</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="R6">
+        <v>4000</v>
+      </c>
+      <c r="S6" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:17">
+    <row r="7" ht="15" customHeight="1" spans="1:19">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>12001004</v>
+        <v>1200104</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1572,36 +1636,39 @@
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5">
-        <v>52</v>
+        <v>1400</v>
       </c>
       <c r="I7" s="8">
-        <v>52</v>
+        <v>450</v>
       </c>
       <c r="J7" s="8">
-        <v>502</v>
+        <v>200</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="R7">
+        <v>8000</v>
+      </c>
+      <c r="S7" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>12001005</v>
+        <v>1200105</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1610,794 +1677,643 @@
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5">
+        <v>55</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>600</v>
+      </c>
+      <c r="J8" s="8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>16000</v>
+      </c>
+      <c r="S8" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1200201</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1200202</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5">
+        <v>220</v>
+      </c>
+      <c r="I11" s="8">
+        <v>200</v>
+      </c>
+      <c r="J11" s="8">
+        <v>150</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1500</v>
+      </c>
+      <c r="S11" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1200203</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5">
+        <v>450</v>
+      </c>
+      <c r="I12" s="8">
+        <v>300</v>
+      </c>
+      <c r="J12" s="8">
+        <v>220</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>3000</v>
+      </c>
+      <c r="S12" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:19">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1200204</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>450</v>
+      </c>
+      <c r="J13" s="8">
+        <v>290</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>6000</v>
+      </c>
+      <c r="S13" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1200205</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="5">
-        <v>53</v>
-      </c>
-      <c r="I8" s="8">
-        <v>53</v>
-      </c>
-      <c r="J8" s="8">
-        <v>503</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>12001006</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5">
-        <v>54</v>
-      </c>
-      <c r="I9" s="8">
-        <v>54</v>
-      </c>
-      <c r="J9" s="8">
-        <v>504</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>12001007</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5">
-        <v>55</v>
-      </c>
-      <c r="I10" s="8">
-        <v>55</v>
-      </c>
-      <c r="J10" s="8">
-        <v>505</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>12001008</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="5">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5">
-        <v>56</v>
-      </c>
-      <c r="I11" s="8">
-        <v>56</v>
-      </c>
-      <c r="J11" s="8">
-        <v>506</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>12001009</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="5">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5">
-        <v>57</v>
-      </c>
-      <c r="I12" s="8">
-        <v>57</v>
-      </c>
-      <c r="J12" s="8">
-        <v>507</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>12001010</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="5">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5">
-        <v>58</v>
-      </c>
-      <c r="I13" s="8">
-        <v>58</v>
-      </c>
-      <c r="J13" s="8">
-        <v>508</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>12002001</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="H14" s="5">
+        <v>2200</v>
+      </c>
+      <c r="I14" s="8">
+        <v>600</v>
+      </c>
+      <c r="J14" s="8">
+        <v>400</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1200</v>
+      </c>
+      <c r="S14" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:19">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>12002002</v>
+        <v>1200301</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5">
-        <v>366</v>
-      </c>
-      <c r="I16" s="8">
-        <v>50</v>
-      </c>
-      <c r="J16" s="8">
-        <v>500</v>
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:19">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>12002003</v>
+        <v>1200302</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G17" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H17" s="5">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="I17" s="8">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="J17" s="8">
-        <v>501</v>
+        <v>170</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="Q17" s="11">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:17">
+      <c r="R17">
+        <v>1500</v>
+      </c>
+      <c r="S17" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:19">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>12002004</v>
+        <v>1200303</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H18" s="5">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="I18" s="8">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="J18" s="8">
-        <v>502</v>
+        <v>250</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="Q18" s="11">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>3000</v>
+      </c>
+      <c r="S18" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="15" customHeight="1" spans="1:19">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>12002005</v>
+        <v>1200304</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5">
-        <v>369</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="8">
-        <v>53</v>
+        <v>550</v>
       </c>
       <c r="J19" s="8">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="Q19" s="11">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>6000</v>
+      </c>
+      <c r="S19" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:19">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>12002006</v>
+        <v>1200305</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G20" s="5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H20" s="5">
-        <v>370</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="8">
-        <v>54</v>
+        <v>800</v>
       </c>
       <c r="J20" s="8">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="Q20" s="11">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>12002007</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="5">
-        <v>16</v>
-      </c>
-      <c r="H21" s="5">
-        <v>371</v>
-      </c>
-      <c r="I21" s="8">
-        <v>55</v>
-      </c>
-      <c r="J21" s="8">
-        <v>505</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R20">
+        <v>1200</v>
+      </c>
+      <c r="S20" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:19">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>12002008</v>
+        <v>1200701</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="5">
-        <v>17</v>
-      </c>
-      <c r="H22" s="5">
-        <v>372</v>
-      </c>
-      <c r="I22" s="8">
-        <v>56</v>
-      </c>
-      <c r="J22" s="8">
-        <v>506</v>
+        <v>41</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="Q22" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:19">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>12002009</v>
+        <v>1200702</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G23" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23" s="5">
-        <v>373</v>
+        <v>220</v>
       </c>
       <c r="I23" s="8">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="J23" s="8">
-        <v>507</v>
+        <v>200</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="Q23" s="11">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1800</v>
+      </c>
+      <c r="S23" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:19">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>12002010</v>
+        <v>1200703</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="5">
+        <v>11</v>
+      </c>
+      <c r="H24" s="5">
+        <v>450</v>
+      </c>
+      <c r="I24" s="8">
+        <v>450</v>
+      </c>
+      <c r="J24" s="8">
+        <v>285</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3600</v>
+      </c>
+      <c r="S24" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="15" customHeight="1" spans="1:19">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1200704</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="5">
-        <v>19</v>
-      </c>
-      <c r="H24" s="5">
-        <v>374</v>
-      </c>
-      <c r="I24" s="8">
-        <v>58</v>
-      </c>
-      <c r="J24" s="8">
-        <v>508</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>12100001</v>
-      </c>
-      <c r="C28">
-        <v>101</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28">
-        <v>200</v>
-      </c>
-      <c r="I28" s="1">
-        <v>200</v>
-      </c>
-      <c r="J28" s="1">
-        <v>100</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>12100002</v>
-      </c>
-      <c r="C29">
-        <v>101</v>
-      </c>
-      <c r="D29">
+      <c r="F25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="5">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>650</v>
+      </c>
+      <c r="J25" s="8">
+        <v>370</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>7200</v>
+      </c>
+      <c r="S25" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:19">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1200705</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>400</v>
-      </c>
-      <c r="I29" s="1">
-        <v>400</v>
-      </c>
-      <c r="J29" s="1">
-        <v>200</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>12100003</v>
-      </c>
-      <c r="C30">
-        <v>101</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30">
-        <v>200</v>
-      </c>
-      <c r="G30">
-        <v>200</v>
-      </c>
-      <c r="H30">
-        <v>800</v>
-      </c>
-      <c r="I30" s="1">
-        <v>600</v>
-      </c>
-      <c r="J30" s="1">
-        <v>300</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>12100004</v>
-      </c>
-      <c r="C31">
-        <v>101</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31">
-        <v>400</v>
-      </c>
-      <c r="G31">
-        <v>400</v>
-      </c>
-      <c r="H31">
-        <v>1600</v>
-      </c>
-      <c r="I31" s="1">
-        <v>800</v>
-      </c>
-      <c r="J31" s="1">
-        <v>400</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>12100005</v>
-      </c>
-      <c r="C32">
-        <v>101</v>
-      </c>
-      <c r="D32">
+      <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32">
-        <v>800</v>
-      </c>
-      <c r="G32">
-        <v>800</v>
-      </c>
-      <c r="H32">
-        <v>3200</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="1">
-        <v>500</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="5">
+        <v>40</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2200</v>
+      </c>
+      <c r="I26" s="8">
+        <v>850</v>
+      </c>
+      <c r="J26" s="8">
+        <v>490</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>14400</v>
+      </c>
+      <c r="S26" s="11">
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2411,34 +2327,34 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2446,11 +2362,14 @@
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2464,34 +2383,34 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2499,11 +2418,14 @@
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2517,34 +2439,34 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2552,11 +2474,14 @@
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>4000</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2570,34 +2495,34 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2605,11 +2530,14 @@
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>8000</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2623,34 +2551,34 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2658,14 +2586,17 @@
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="10" t="s">
-        <v>37</v>
+      <c r="R39">
+        <v>16000</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2679,34 +2610,34 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2714,11 +2645,14 @@
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>800</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2732,34 +2666,34 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2767,11 +2701,14 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>1600</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2785,34 +2722,34 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2820,11 +2757,14 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>3200</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2838,34 +2778,34 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -2873,11 +2813,14 @@
       <c r="P44">
         <v>0</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>6400</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2891,34 +2834,34 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -2926,8 +2869,11 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45" s="10" t="s">
-        <v>37</v>
+      <c r="R45">
+        <v>12800</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="11:11">
@@ -2973,7 +2919,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2990,7 +2936,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
